--- a/excel/COTS-Chart-Template.xlsx
+++ b/excel/COTS-Chart-Template.xlsx
@@ -2,22 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\TA\working\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="LT-Template" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -6501,16 +6498,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>52386</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>157161</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6536,15 +6533,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>109535</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23810</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6567,2613 +6564,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="All_PM-combo-data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="E1" t="str">
-            <v>Long-Short</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>SPX</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>40911</v>
-          </cell>
-          <cell r="E2">
-            <v>576497</v>
-          </cell>
-          <cell r="J2">
-            <v>1277.06</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>40918</v>
-          </cell>
-          <cell r="E3">
-            <v>618875</v>
-          </cell>
-          <cell r="J3">
-            <v>1292.08</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>40925</v>
-          </cell>
-          <cell r="E4">
-            <v>708628</v>
-          </cell>
-          <cell r="J4">
-            <v>1293.67</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>40932</v>
-          </cell>
-          <cell r="E5">
-            <v>819113</v>
-          </cell>
-          <cell r="J5">
-            <v>1314.65</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>40939</v>
-          </cell>
-          <cell r="E6">
-            <v>822463</v>
-          </cell>
-          <cell r="J6">
-            <v>1312.41</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>40946</v>
-          </cell>
-          <cell r="E7">
-            <v>938663</v>
-          </cell>
-          <cell r="J7">
-            <v>1347.05</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>40953</v>
-          </cell>
-          <cell r="E8">
-            <v>1045711</v>
-          </cell>
-          <cell r="J8">
-            <v>1350.5</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>40960</v>
-          </cell>
-          <cell r="E9">
-            <v>1114844</v>
-          </cell>
-          <cell r="J9">
-            <v>1362.21</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>40967</v>
-          </cell>
-          <cell r="E10">
-            <v>1136629</v>
-          </cell>
-          <cell r="J10">
-            <v>1372.18</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>40974</v>
-          </cell>
-          <cell r="E11">
-            <v>1048407</v>
-          </cell>
-          <cell r="J11">
-            <v>1343.36</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>40981</v>
-          </cell>
-          <cell r="E12">
-            <v>1145666</v>
-          </cell>
-          <cell r="J12">
-            <v>1395.95</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>40988</v>
-          </cell>
-          <cell r="E13">
-            <v>1134860</v>
-          </cell>
-          <cell r="J13">
-            <v>1405.52</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>40995</v>
-          </cell>
-          <cell r="E14">
-            <v>1202164</v>
-          </cell>
-          <cell r="J14">
-            <v>1412.52</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>41002</v>
-          </cell>
-          <cell r="E15">
-            <v>1119881</v>
-          </cell>
-          <cell r="J15">
-            <v>1413.38</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>41009</v>
-          </cell>
-          <cell r="E16">
-            <v>1006194</v>
-          </cell>
-          <cell r="J16">
-            <v>1358.59</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>41016</v>
-          </cell>
-          <cell r="E17">
-            <v>1011891</v>
-          </cell>
-          <cell r="J17">
-            <v>1390.78</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>41023</v>
-          </cell>
-          <cell r="E18">
-            <v>947324</v>
-          </cell>
-          <cell r="J18">
-            <v>1371.97</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>41030</v>
-          </cell>
-          <cell r="E19">
-            <v>986643</v>
-          </cell>
-          <cell r="J19">
-            <v>1405.82</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>41037</v>
-          </cell>
-          <cell r="E20">
-            <v>915786</v>
-          </cell>
-          <cell r="J20">
-            <v>1363.72</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>41044</v>
-          </cell>
-          <cell r="E21">
-            <v>788258</v>
-          </cell>
-          <cell r="J21">
-            <v>1330.66</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>41051</v>
-          </cell>
-          <cell r="E22">
-            <v>777011</v>
-          </cell>
-          <cell r="J22">
-            <v>1316.63</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>41058</v>
-          </cell>
-          <cell r="E23">
-            <v>758530</v>
-          </cell>
-          <cell r="J23">
-            <v>1332.42</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>41065</v>
-          </cell>
-          <cell r="E24">
-            <v>648503</v>
-          </cell>
-          <cell r="J24">
-            <v>1285.5</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>41072</v>
-          </cell>
-          <cell r="E25">
-            <v>874273</v>
-          </cell>
-          <cell r="J25">
-            <v>1324.18</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>41079</v>
-          </cell>
-          <cell r="E26">
-            <v>889828</v>
-          </cell>
-          <cell r="J26">
-            <v>1357.98</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>41086</v>
-          </cell>
-          <cell r="E27">
-            <v>776152</v>
-          </cell>
-          <cell r="J27">
-            <v>1319.99</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>41093</v>
-          </cell>
-          <cell r="E28">
-            <v>872818</v>
-          </cell>
-          <cell r="J28">
-            <v>1374.02</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>41100</v>
-          </cell>
-          <cell r="E29">
-            <v>842371</v>
-          </cell>
-          <cell r="J29">
-            <v>1341.47</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>41107</v>
-          </cell>
-          <cell r="E30">
-            <v>831461</v>
-          </cell>
-          <cell r="J30">
-            <v>1363.67</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>41114</v>
-          </cell>
-          <cell r="E31">
-            <v>782083</v>
-          </cell>
-          <cell r="J31">
-            <v>1338.31</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>41121</v>
-          </cell>
-          <cell r="E32">
-            <v>898463</v>
-          </cell>
-          <cell r="J32">
-            <v>1379.32</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>41128</v>
-          </cell>
-          <cell r="E33">
-            <v>938587</v>
-          </cell>
-          <cell r="J33">
-            <v>1401.35</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>41135</v>
-          </cell>
-          <cell r="E34">
-            <v>1020353</v>
-          </cell>
-          <cell r="J34">
-            <v>1403.93</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>41142</v>
-          </cell>
-          <cell r="E35">
-            <v>1049992</v>
-          </cell>
-          <cell r="J35">
-            <v>1413.17</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>41149</v>
-          </cell>
-          <cell r="E36">
-            <v>1065499</v>
-          </cell>
-          <cell r="J36">
-            <v>1409.3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>41156</v>
-          </cell>
-          <cell r="E37">
-            <v>1017126</v>
-          </cell>
-          <cell r="J37">
-            <v>1404.94</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>41163</v>
-          </cell>
-          <cell r="E38">
-            <v>1066134</v>
-          </cell>
-          <cell r="J38">
-            <v>1433.56</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>41170</v>
-          </cell>
-          <cell r="E39">
-            <v>1253234</v>
-          </cell>
-          <cell r="J39">
-            <v>1459.32</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>41177</v>
-          </cell>
-          <cell r="E40">
-            <v>1221730</v>
-          </cell>
-          <cell r="J40">
-            <v>1441.59</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>41184</v>
-          </cell>
-          <cell r="E41">
-            <v>1223668</v>
-          </cell>
-          <cell r="J41">
-            <v>1445.75</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>41191</v>
-          </cell>
-          <cell r="E42">
-            <v>1244253</v>
-          </cell>
-          <cell r="J42">
-            <v>1441.48</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>41198</v>
-          </cell>
-          <cell r="E43">
-            <v>1266379</v>
-          </cell>
-          <cell r="J43">
-            <v>1454.92</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>41205</v>
-          </cell>
-          <cell r="E44">
-            <v>1257265</v>
-          </cell>
-          <cell r="J44">
-            <v>1413.11</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>41212</v>
-          </cell>
-          <cell r="E45">
-            <v>1267411</v>
-          </cell>
-          <cell r="J45">
-            <v>1411.94</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>41219</v>
-          </cell>
-          <cell r="E46">
-            <v>1188509</v>
-          </cell>
-          <cell r="J46">
-            <v>1428.39</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>41226</v>
-          </cell>
-          <cell r="E47">
-            <v>914194</v>
-          </cell>
-          <cell r="J47">
-            <v>1374.53</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>41233</v>
-          </cell>
-          <cell r="E48">
-            <v>922957</v>
-          </cell>
-          <cell r="J48">
-            <v>1387.81</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>41240</v>
-          </cell>
-          <cell r="E49">
-            <v>961140</v>
-          </cell>
-          <cell r="J49">
-            <v>1398.94</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>41247</v>
-          </cell>
-          <cell r="E50">
-            <v>957491</v>
-          </cell>
-          <cell r="J50">
-            <v>1407.05</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>41254</v>
-          </cell>
-          <cell r="E51">
-            <v>955468</v>
-          </cell>
-          <cell r="J51">
-            <v>1427.84</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>41261</v>
-          </cell>
-          <cell r="E52">
-            <v>1063924</v>
-          </cell>
-          <cell r="J52">
-            <v>1446.79</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>41267</v>
-          </cell>
-          <cell r="E53">
-            <v>1191861</v>
-          </cell>
-          <cell r="J53">
-            <v>1426.66</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>41274</v>
-          </cell>
-          <cell r="E54">
-            <v>1140471</v>
-          </cell>
-          <cell r="J54">
-            <v>1462.42</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>41282</v>
-          </cell>
-          <cell r="E55">
-            <v>1249826</v>
-          </cell>
-          <cell r="J55">
-            <v>1457.15</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>41289</v>
-          </cell>
-          <cell r="E56">
-            <v>1280236</v>
-          </cell>
-          <cell r="J56">
-            <v>1472.34</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>41296</v>
-          </cell>
-          <cell r="E57">
-            <v>1349696</v>
-          </cell>
-          <cell r="J57">
-            <v>1492.56</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>41303</v>
-          </cell>
-          <cell r="E58">
-            <v>1455032</v>
-          </cell>
-          <cell r="J58">
-            <v>1507.84</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>41310</v>
-          </cell>
-          <cell r="E59">
-            <v>1373503</v>
-          </cell>
-          <cell r="J59">
-            <v>1511.29</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>41317</v>
-          </cell>
-          <cell r="E60">
-            <v>1343901</v>
-          </cell>
-          <cell r="J60">
-            <v>1519.43</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>41324</v>
-          </cell>
-          <cell r="E61">
-            <v>1329871</v>
-          </cell>
-          <cell r="J61">
-            <v>1530.94</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>41331</v>
-          </cell>
-          <cell r="E62">
-            <v>1247322</v>
-          </cell>
-          <cell r="J62">
-            <v>1496.94</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>41338</v>
-          </cell>
-          <cell r="E63">
-            <v>1083387</v>
-          </cell>
-          <cell r="J63">
-            <v>1539.79</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>41345</v>
-          </cell>
-          <cell r="E64">
-            <v>1158272</v>
-          </cell>
-          <cell r="J64">
-            <v>1552.48</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>41352</v>
-          </cell>
-          <cell r="E65">
-            <v>1252828</v>
-          </cell>
-          <cell r="J65">
-            <v>1548.34</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>41359</v>
-          </cell>
-          <cell r="E66">
-            <v>1312101</v>
-          </cell>
-          <cell r="J66">
-            <v>1563.77</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>41366</v>
-          </cell>
-          <cell r="E67">
-            <v>1344455</v>
-          </cell>
-          <cell r="J67">
-            <v>1570.25</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>41373</v>
-          </cell>
-          <cell r="E68">
-            <v>1281991</v>
-          </cell>
-          <cell r="J68">
-            <v>1568.61</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>41380</v>
-          </cell>
-          <cell r="E69">
-            <v>1339340</v>
-          </cell>
-          <cell r="J69">
-            <v>1574.57</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>41387</v>
-          </cell>
-          <cell r="E70">
-            <v>1255206</v>
-          </cell>
-          <cell r="J70">
-            <v>1578.78</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>41394</v>
-          </cell>
-          <cell r="E71">
-            <v>1300312</v>
-          </cell>
-          <cell r="J71">
-            <v>1597.57</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>41401</v>
-          </cell>
-          <cell r="E72">
-            <v>1339837</v>
-          </cell>
-          <cell r="J72">
-            <v>1625.96</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>41408</v>
-          </cell>
-          <cell r="E73">
-            <v>1406184</v>
-          </cell>
-          <cell r="J73">
-            <v>1650.34</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>41415</v>
-          </cell>
-          <cell r="E74">
-            <v>1524675</v>
-          </cell>
-          <cell r="J74">
-            <v>1669.16</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>41422</v>
-          </cell>
-          <cell r="E75">
-            <v>1565377</v>
-          </cell>
-          <cell r="J75">
-            <v>1660.06</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>41429</v>
-          </cell>
-          <cell r="E76">
-            <v>1479178</v>
-          </cell>
-          <cell r="J76">
-            <v>1631.38</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>41436</v>
-          </cell>
-          <cell r="E77">
-            <v>1368742</v>
-          </cell>
-          <cell r="J77">
-            <v>1626.13</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>41443</v>
-          </cell>
-          <cell r="E78">
-            <v>1416470</v>
-          </cell>
-          <cell r="J78">
-            <v>1651.81</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>41450</v>
-          </cell>
-          <cell r="E79">
-            <v>1052504</v>
-          </cell>
-          <cell r="J79">
-            <v>1588.03</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>41457</v>
-          </cell>
-          <cell r="E80">
-            <v>1074065</v>
-          </cell>
-          <cell r="J80">
-            <v>1614.08</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>41464</v>
-          </cell>
-          <cell r="E81">
-            <v>1176301</v>
-          </cell>
-          <cell r="J81">
-            <v>1652.32</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>41471</v>
-          </cell>
-          <cell r="E82">
-            <v>1255460</v>
-          </cell>
-          <cell r="J82">
-            <v>1676.26</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>41478</v>
-          </cell>
-          <cell r="E83">
-            <v>1347762</v>
-          </cell>
-          <cell r="J83">
-            <v>1692.39</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>41485</v>
-          </cell>
-          <cell r="E84">
-            <v>1363600</v>
-          </cell>
-          <cell r="J84">
-            <v>1685.96</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>41492</v>
-          </cell>
-          <cell r="E85">
-            <v>1368598</v>
-          </cell>
-          <cell r="J85">
-            <v>1697.37</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>41499</v>
-          </cell>
-          <cell r="E86">
-            <v>1337497</v>
-          </cell>
-          <cell r="J86">
-            <v>1694.16</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>41506</v>
-          </cell>
-          <cell r="E87">
-            <v>1226401</v>
-          </cell>
-          <cell r="J87">
-            <v>1652.35</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>41513</v>
-          </cell>
-          <cell r="E88">
-            <v>1153905</v>
-          </cell>
-          <cell r="J88">
-            <v>1630.48</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>41520</v>
-          </cell>
-          <cell r="E89">
-            <v>1110532</v>
-          </cell>
-          <cell r="J89">
-            <v>1639.77</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>41527</v>
-          </cell>
-          <cell r="E90">
-            <v>1201721</v>
-          </cell>
-          <cell r="J90">
-            <v>1683.99</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>41534</v>
-          </cell>
-          <cell r="E91">
-            <v>1239417</v>
-          </cell>
-          <cell r="J91">
-            <v>1704.76</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>41541</v>
-          </cell>
-          <cell r="E92">
-            <v>1255532</v>
-          </cell>
-          <cell r="J92">
-            <v>1697.42</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>41548</v>
-          </cell>
-          <cell r="E93">
-            <v>1220354</v>
-          </cell>
-          <cell r="J93">
-            <v>1695</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>41555</v>
-          </cell>
-          <cell r="E94">
-            <v>1141926</v>
-          </cell>
-          <cell r="J94">
-            <v>1655.45</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>41562</v>
-          </cell>
-          <cell r="E95">
-            <v>1158654</v>
-          </cell>
-          <cell r="J95">
-            <v>1698.06</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>41569</v>
-          </cell>
-          <cell r="E96">
-            <v>1251261</v>
-          </cell>
-          <cell r="J96">
-            <v>1754.67</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>41576</v>
-          </cell>
-          <cell r="E97">
-            <v>1361180</v>
-          </cell>
-          <cell r="J97">
-            <v>1771.95</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>41583</v>
-          </cell>
-          <cell r="E98">
-            <v>1333078</v>
-          </cell>
-          <cell r="J98">
-            <v>1762.97</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>41590</v>
-          </cell>
-          <cell r="E99">
-            <v>1335297</v>
-          </cell>
-          <cell r="J99">
-            <v>1767.69</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>41597</v>
-          </cell>
-          <cell r="E100">
-            <v>1328715</v>
-          </cell>
-          <cell r="J100">
-            <v>1787.87</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>41604</v>
-          </cell>
-          <cell r="E101">
-            <v>1331456</v>
-          </cell>
-          <cell r="J101">
-            <v>1802.75</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>41611</v>
-          </cell>
-          <cell r="E102">
-            <v>1292001</v>
-          </cell>
-          <cell r="J102">
-            <v>1795.15</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>41618</v>
-          </cell>
-          <cell r="E103">
-            <v>1313730</v>
-          </cell>
-          <cell r="J103">
-            <v>1802.62</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>41625</v>
-          </cell>
-          <cell r="E104">
-            <v>1283275</v>
-          </cell>
-          <cell r="J104">
-            <v>1781</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>41632</v>
-          </cell>
-          <cell r="E105">
-            <v>1446491</v>
-          </cell>
-          <cell r="J105">
-            <v>1833.32</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>41639</v>
-          </cell>
-          <cell r="E106">
-            <v>1479938</v>
-          </cell>
-          <cell r="J106">
-            <v>1848.36</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>41646</v>
-          </cell>
-          <cell r="E107">
-            <v>1477005</v>
-          </cell>
-          <cell r="J107">
-            <v>1837.88</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>41653</v>
-          </cell>
-          <cell r="E108">
-            <v>1518130</v>
-          </cell>
-          <cell r="J108">
-            <v>1838.88</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>41660</v>
-          </cell>
-          <cell r="E109">
-            <v>1501995</v>
-          </cell>
-          <cell r="J109">
-            <v>1843.8</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>41667</v>
-          </cell>
-          <cell r="E110">
-            <v>1342833</v>
-          </cell>
-          <cell r="J110">
-            <v>1792.5</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>41674</v>
-          </cell>
-          <cell r="E111">
-            <v>1190450</v>
-          </cell>
-          <cell r="J111">
-            <v>1755.2</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>41681</v>
-          </cell>
-          <cell r="E112">
-            <v>1336919</v>
-          </cell>
-          <cell r="J112">
-            <v>1819.75</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>41688</v>
-          </cell>
-          <cell r="E113">
-            <v>1356880</v>
-          </cell>
-          <cell r="J113">
-            <v>1840.76</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>41695</v>
-          </cell>
-          <cell r="E114">
-            <v>1265046</v>
-          </cell>
-          <cell r="J114">
-            <v>1845.12</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>41702</v>
-          </cell>
-          <cell r="E115">
-            <v>1317330</v>
-          </cell>
-          <cell r="J115">
-            <v>1873.91</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>41709</v>
-          </cell>
-          <cell r="E116">
-            <v>1352513</v>
-          </cell>
-          <cell r="J116">
-            <v>1867.63</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>41716</v>
-          </cell>
-          <cell r="E117">
-            <v>1348583</v>
-          </cell>
-          <cell r="J117">
-            <v>1872.25</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>41723</v>
-          </cell>
-          <cell r="E118">
-            <v>1476021</v>
-          </cell>
-          <cell r="J118">
-            <v>1865.62</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>41730</v>
-          </cell>
-          <cell r="E119">
-            <v>1449070</v>
-          </cell>
-          <cell r="J119">
-            <v>1885.52</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>41737</v>
-          </cell>
-          <cell r="E120">
-            <v>1377337</v>
-          </cell>
-          <cell r="J120">
-            <v>1851.96</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>41744</v>
-          </cell>
-          <cell r="E121">
-            <v>1288101</v>
-          </cell>
-          <cell r="J121">
-            <v>1842.98</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>41751</v>
-          </cell>
-          <cell r="E122">
-            <v>1296389</v>
-          </cell>
-          <cell r="J122">
-            <v>1879.55</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>41758</v>
-          </cell>
-          <cell r="E123">
-            <v>1260825</v>
-          </cell>
-          <cell r="J123">
-            <v>1878.33</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>41765</v>
-          </cell>
-          <cell r="E124">
-            <v>1234424</v>
-          </cell>
-          <cell r="J124">
-            <v>1867.72</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>41772</v>
-          </cell>
-          <cell r="E125">
-            <v>1260923</v>
-          </cell>
-          <cell r="J125">
-            <v>1897.45</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>41779</v>
-          </cell>
-          <cell r="E126">
-            <v>1232859</v>
-          </cell>
-          <cell r="J126">
-            <v>1872.83</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>41786</v>
-          </cell>
-          <cell r="E127">
-            <v>1289448</v>
-          </cell>
-          <cell r="J127">
-            <v>1911.91</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>41793</v>
-          </cell>
-          <cell r="E128">
-            <v>1342976</v>
-          </cell>
-          <cell r="J128">
-            <v>1924.24</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>41800</v>
-          </cell>
-          <cell r="E129">
-            <v>1367050</v>
-          </cell>
-          <cell r="J129">
-            <v>1950.79</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>41807</v>
-          </cell>
-          <cell r="E130">
-            <v>1325884</v>
-          </cell>
-          <cell r="J130">
-            <v>1941.99</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>41814</v>
-          </cell>
-          <cell r="E131">
-            <v>1398313</v>
-          </cell>
-          <cell r="J131">
-            <v>1949.98</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>41821</v>
-          </cell>
-          <cell r="E132">
-            <v>1376725</v>
-          </cell>
-          <cell r="J132">
-            <v>1973.32</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>41828</v>
-          </cell>
-          <cell r="E133">
-            <v>1402626</v>
-          </cell>
-          <cell r="J133">
-            <v>1963.71</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>41835</v>
-          </cell>
-          <cell r="E134">
-            <v>1410622</v>
-          </cell>
-          <cell r="J134">
-            <v>1973.28</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>41842</v>
-          </cell>
-          <cell r="E135">
-            <v>1393927</v>
-          </cell>
-          <cell r="J135">
-            <v>1983.53</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>41849</v>
-          </cell>
-          <cell r="E136">
-            <v>1398987</v>
-          </cell>
-          <cell r="J136">
-            <v>1969.95</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>41856</v>
-          </cell>
-          <cell r="E137">
-            <v>1237096</v>
-          </cell>
-          <cell r="J137">
-            <v>1920.21</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>41863</v>
-          </cell>
-          <cell r="E138">
-            <v>1217794</v>
-          </cell>
-          <cell r="J138">
-            <v>1933.75</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>41870</v>
-          </cell>
-          <cell r="E139">
-            <v>1276563</v>
-          </cell>
-          <cell r="J139">
-            <v>1981.6</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>41877</v>
-          </cell>
-          <cell r="E140">
-            <v>1269561</v>
-          </cell>
-          <cell r="J140">
-            <v>2000.02</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>41884</v>
-          </cell>
-          <cell r="E141">
-            <v>1249404</v>
-          </cell>
-          <cell r="J141">
-            <v>2002.28</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>41891</v>
-          </cell>
-          <cell r="E142">
-            <v>1228792</v>
-          </cell>
-          <cell r="J142">
-            <v>1988.44</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>41898</v>
-          </cell>
-          <cell r="E143">
-            <v>1244729</v>
-          </cell>
-          <cell r="J143">
-            <v>1998.98</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>41905</v>
-          </cell>
-          <cell r="E144">
-            <v>1345607</v>
-          </cell>
-          <cell r="J144">
-            <v>1982.77</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>41912</v>
-          </cell>
-          <cell r="E145">
-            <v>1273822</v>
-          </cell>
-          <cell r="J145">
-            <v>1972.29</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>41919</v>
-          </cell>
-          <cell r="E146">
-            <v>1130355</v>
-          </cell>
-          <cell r="J146">
-            <v>1935.1</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>41926</v>
-          </cell>
-          <cell r="E147">
-            <v>1049815</v>
-          </cell>
-          <cell r="J147">
-            <v>1877.7</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>41933</v>
-          </cell>
-          <cell r="E148">
-            <v>1071380</v>
-          </cell>
-          <cell r="J148">
-            <v>1941.28</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>41940</v>
-          </cell>
-          <cell r="E149">
-            <v>1111104</v>
-          </cell>
-          <cell r="J149">
-            <v>1985.05</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>41947</v>
-          </cell>
-          <cell r="E150">
-            <v>1094366</v>
-          </cell>
-          <cell r="J150">
-            <v>2012.1</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>41954</v>
-          </cell>
-          <cell r="E151">
-            <v>1164746</v>
-          </cell>
-          <cell r="J151">
-            <v>2039.68</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>41961</v>
-          </cell>
-          <cell r="E152">
-            <v>1247542</v>
-          </cell>
-          <cell r="J152">
-            <v>2051.8000000000002</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>41968</v>
-          </cell>
-          <cell r="E153">
-            <v>1277482</v>
-          </cell>
-          <cell r="J153">
-            <v>2067.0300000000002</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>41975</v>
-          </cell>
-          <cell r="E154">
-            <v>1253325</v>
-          </cell>
-          <cell r="J154">
-            <v>2066.5500000000002</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>41982</v>
-          </cell>
-          <cell r="E155">
-            <v>1242390</v>
-          </cell>
-          <cell r="J155">
-            <v>2059.8200000000002</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>41989</v>
-          </cell>
-          <cell r="E156">
-            <v>1058242</v>
-          </cell>
-          <cell r="J156">
-            <v>1972.74</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>41996</v>
-          </cell>
-          <cell r="E157">
-            <v>1301032</v>
-          </cell>
-          <cell r="J157">
-            <v>2082.17</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>42003</v>
-          </cell>
-          <cell r="E158">
-            <v>1325765</v>
-          </cell>
-          <cell r="J158">
-            <v>2080.35</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>42010</v>
-          </cell>
-          <cell r="E159">
-            <v>1212342</v>
-          </cell>
-          <cell r="J159">
-            <v>2002.61</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>42017</v>
-          </cell>
-          <cell r="E160">
-            <v>1219851</v>
-          </cell>
-          <cell r="J160">
-            <v>2023.03</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>42024</v>
-          </cell>
-          <cell r="E161">
-            <v>1154907</v>
-          </cell>
-          <cell r="J161">
-            <v>2022.55</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>42031</v>
-          </cell>
-          <cell r="E162">
-            <v>1196127</v>
-          </cell>
-          <cell r="J162">
-            <v>2029.55</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>42038</v>
-          </cell>
-          <cell r="E163">
-            <v>1122011</v>
-          </cell>
-          <cell r="J163">
-            <v>2050.0300000000002</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>42045</v>
-          </cell>
-          <cell r="E164">
-            <v>1101600</v>
-          </cell>
-          <cell r="J164">
-            <v>2068.59</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>42052</v>
-          </cell>
-          <cell r="E165">
-            <v>1153823</v>
-          </cell>
-          <cell r="J165">
-            <v>2100.34</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>42059</v>
-          </cell>
-          <cell r="E166">
-            <v>1188811</v>
-          </cell>
-          <cell r="J166">
-            <v>2115.48</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167">
-            <v>42066</v>
-          </cell>
-          <cell r="E167">
-            <v>1138283</v>
-          </cell>
-          <cell r="J167">
-            <v>2107.7800000000002</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>42073</v>
-          </cell>
-          <cell r="E168">
-            <v>1003585</v>
-          </cell>
-          <cell r="J168">
-            <v>2044.16</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>42080</v>
-          </cell>
-          <cell r="E169">
-            <v>995189</v>
-          </cell>
-          <cell r="J169">
-            <v>2074.2800000000002</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>42087</v>
-          </cell>
-          <cell r="E170">
-            <v>1119201</v>
-          </cell>
-          <cell r="J170">
-            <v>2091.5</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>42094</v>
-          </cell>
-          <cell r="E171">
-            <v>1057725</v>
-          </cell>
-          <cell r="J171">
-            <v>2067.89</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>42101</v>
-          </cell>
-          <cell r="E172">
-            <v>1059331</v>
-          </cell>
-          <cell r="J172">
-            <v>2076.33</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173">
-            <v>42108</v>
-          </cell>
-          <cell r="E173">
-            <v>1092621</v>
-          </cell>
-          <cell r="J173">
-            <v>2095.84</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174">
-            <v>42115</v>
-          </cell>
-          <cell r="E174">
-            <v>1055895</v>
-          </cell>
-          <cell r="J174">
-            <v>2097.29</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175">
-            <v>42122</v>
-          </cell>
-          <cell r="E175">
-            <v>1091757</v>
-          </cell>
-          <cell r="J175">
-            <v>2114.7600000000002</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176">
-            <v>42129</v>
-          </cell>
-          <cell r="E176">
-            <v>1031542</v>
-          </cell>
-          <cell r="J176">
-            <v>2089.46</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177">
-            <v>42136</v>
-          </cell>
-          <cell r="E177">
-            <v>1019691</v>
-          </cell>
-          <cell r="J177">
-            <v>2099.12</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178">
-            <v>42143</v>
-          </cell>
-          <cell r="E178">
-            <v>1076352</v>
-          </cell>
-          <cell r="J178">
-            <v>2127.83</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>42150</v>
-          </cell>
-          <cell r="E179">
-            <v>1038921</v>
-          </cell>
-          <cell r="J179">
-            <v>2104.1999999999998</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180">
-            <v>42157</v>
-          </cell>
-          <cell r="E180">
-            <v>1057720</v>
-          </cell>
-          <cell r="J180">
-            <v>2109.6</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181">
-            <v>42164</v>
-          </cell>
-          <cell r="E181">
-            <v>954919</v>
-          </cell>
-          <cell r="J181">
-            <v>2080.15</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182">
-            <v>42171</v>
-          </cell>
-          <cell r="E182">
-            <v>903342</v>
-          </cell>
-          <cell r="J182">
-            <v>2096.29</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183">
-            <v>42178</v>
-          </cell>
-          <cell r="E183">
-            <v>1112953</v>
-          </cell>
-          <cell r="J183">
-            <v>2124.1999999999998</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>42185</v>
-          </cell>
-          <cell r="E184">
-            <v>981896</v>
-          </cell>
-          <cell r="J184">
-            <v>2063.11</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>42192</v>
-          </cell>
-          <cell r="E185">
-            <v>970406</v>
-          </cell>
-          <cell r="J185">
-            <v>2081.34</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>42199</v>
-          </cell>
-          <cell r="E186">
-            <v>987078</v>
-          </cell>
-          <cell r="J186">
-            <v>2108.94</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>42206</v>
-          </cell>
-          <cell r="E187">
-            <v>1033790</v>
-          </cell>
-          <cell r="J187">
-            <v>2119.21</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>42213</v>
-          </cell>
-          <cell r="E188">
-            <v>939923</v>
-          </cell>
-          <cell r="J188">
-            <v>2093.25</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>42220</v>
-          </cell>
-          <cell r="E189">
-            <v>900625</v>
-          </cell>
-          <cell r="J189">
-            <v>2093.3200000000002</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>42227</v>
-          </cell>
-          <cell r="E190">
-            <v>891496</v>
-          </cell>
-          <cell r="J190">
-            <v>2084.0700000000002</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>42234</v>
-          </cell>
-          <cell r="E191">
-            <v>860008</v>
-          </cell>
-          <cell r="J191">
-            <v>2096.92</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>42241</v>
-          </cell>
-          <cell r="E192">
-            <v>485912</v>
-          </cell>
-          <cell r="J192">
-            <v>1867.61</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>42248</v>
-          </cell>
-          <cell r="E193">
-            <v>326482</v>
-          </cell>
-          <cell r="J193">
-            <v>1913.85</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>42255</v>
-          </cell>
-          <cell r="E194">
-            <v>269385</v>
-          </cell>
-          <cell r="J194">
-            <v>1969.41</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>42262</v>
-          </cell>
-          <cell r="E195">
-            <v>275353</v>
-          </cell>
-          <cell r="J195">
-            <v>1978.09</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>42269</v>
-          </cell>
-          <cell r="E196">
-            <v>249614</v>
-          </cell>
-          <cell r="J196">
-            <v>1942.74</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197">
-            <v>42276</v>
-          </cell>
-          <cell r="E197">
-            <v>229219</v>
-          </cell>
-          <cell r="J197">
-            <v>1884.09</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198">
-            <v>42283</v>
-          </cell>
-          <cell r="E198">
-            <v>439605</v>
-          </cell>
-          <cell r="J198">
-            <v>1979.92</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199">
-            <v>42290</v>
-          </cell>
-          <cell r="E199">
-            <v>586045</v>
-          </cell>
-          <cell r="J199">
-            <v>2003.69</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200">
-            <v>42297</v>
-          </cell>
-          <cell r="E200">
-            <v>633516</v>
-          </cell>
-          <cell r="J200">
-            <v>2030.77</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201">
-            <v>42304</v>
-          </cell>
-          <cell r="E201">
-            <v>743923</v>
-          </cell>
-          <cell r="J201">
-            <v>2065.89</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>42311</v>
-          </cell>
-          <cell r="E202">
-            <v>798984</v>
-          </cell>
-          <cell r="J202">
-            <v>2109.79</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>42318</v>
-          </cell>
-          <cell r="E203">
-            <v>713776</v>
-          </cell>
-          <cell r="J203">
-            <v>2081.71</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>42325</v>
-          </cell>
-          <cell r="E204">
-            <v>574583</v>
-          </cell>
-          <cell r="J204">
-            <v>2050.44</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>42332</v>
-          </cell>
-          <cell r="E205">
-            <v>594702</v>
-          </cell>
-          <cell r="J205">
-            <v>2089.14</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>42339</v>
-          </cell>
-          <cell r="E206">
-            <v>598718</v>
-          </cell>
-          <cell r="J206">
-            <v>2102.63</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>42346</v>
-          </cell>
-          <cell r="E207">
-            <v>575881</v>
-          </cell>
-          <cell r="J207">
-            <v>2063.59</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208">
-            <v>42353</v>
-          </cell>
-          <cell r="E208">
-            <v>492712</v>
-          </cell>
-          <cell r="J208">
-            <v>2043.41</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209">
-            <v>42360</v>
-          </cell>
-          <cell r="E209">
-            <v>486795</v>
-          </cell>
-          <cell r="J209">
-            <v>2038.97</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>42367</v>
-          </cell>
-          <cell r="E210">
-            <v>592134</v>
-          </cell>
-          <cell r="J210">
-            <v>2078.36</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211">
-            <v>42374</v>
-          </cell>
-          <cell r="E211">
-            <v>397669</v>
-          </cell>
-          <cell r="J211">
-            <v>2016.71</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212">
-            <v>42381</v>
-          </cell>
-          <cell r="E212">
-            <v>244868</v>
-          </cell>
-          <cell r="J212">
-            <v>1938.68</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213">
-            <v>42388</v>
-          </cell>
-          <cell r="E213">
-            <v>201089</v>
-          </cell>
-          <cell r="J213">
-            <v>1881.33</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214">
-            <v>42395</v>
-          </cell>
-          <cell r="E214">
-            <v>160144</v>
-          </cell>
-          <cell r="J214">
-            <v>1903.63</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215">
-            <v>42402</v>
-          </cell>
-          <cell r="E215">
-            <v>239627</v>
-          </cell>
-          <cell r="J215">
-            <v>1903.03</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216">
-            <v>42409</v>
-          </cell>
-          <cell r="E216">
-            <v>176670</v>
-          </cell>
-          <cell r="J216">
-            <v>1852.21</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217">
-            <v>42416</v>
-          </cell>
-          <cell r="E217">
-            <v>181095</v>
-          </cell>
-          <cell r="J217">
-            <v>1895.58</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218">
-            <v>42423</v>
-          </cell>
-          <cell r="E218">
-            <v>249898</v>
-          </cell>
-          <cell r="J218">
-            <v>1921.27</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219">
-            <v>42430</v>
-          </cell>
-          <cell r="E219">
-            <v>252736</v>
-          </cell>
-          <cell r="J219">
-            <v>1978.35</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220">
-            <v>42437</v>
-          </cell>
-          <cell r="E220">
-            <v>191029</v>
-          </cell>
-          <cell r="J220">
-            <v>1979.26</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221">
-            <v>42444</v>
-          </cell>
-          <cell r="E221">
-            <v>180940</v>
-          </cell>
-          <cell r="J221">
-            <v>2015.93</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222">
-            <v>42451</v>
-          </cell>
-          <cell r="E222">
-            <v>281260</v>
-          </cell>
-          <cell r="J222">
-            <v>2049.8000000000002</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223">
-            <v>42458</v>
-          </cell>
-          <cell r="E223">
-            <v>240481</v>
-          </cell>
-          <cell r="J223">
-            <v>2055.0100000000002</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224">
-            <v>42465</v>
-          </cell>
-          <cell r="E224">
-            <v>220294</v>
-          </cell>
-          <cell r="J224">
-            <v>2045.17</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225">
-            <v>42472</v>
-          </cell>
-          <cell r="E225">
-            <v>268704</v>
-          </cell>
-          <cell r="J225">
-            <v>2061.71</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226">
-            <v>42479</v>
-          </cell>
-          <cell r="E226">
-            <v>429153</v>
-          </cell>
-          <cell r="J226">
-            <v>2100.8000000000002</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227">
-            <v>42486</v>
-          </cell>
-          <cell r="E227">
-            <v>423729</v>
-          </cell>
-          <cell r="J227">
-            <v>2091.69</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228">
-            <v>42493</v>
-          </cell>
-          <cell r="E228">
-            <v>335287</v>
-          </cell>
-          <cell r="J228">
-            <v>2063.37</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229">
-            <v>42500</v>
-          </cell>
-          <cell r="E229">
-            <v>379300</v>
-          </cell>
-          <cell r="J229">
-            <v>2084.39</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230">
-            <v>42507</v>
-          </cell>
-          <cell r="E230">
-            <v>381836</v>
-          </cell>
-          <cell r="J230">
-            <v>2047.21</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231">
-            <v>42514</v>
-          </cell>
-          <cell r="E231">
-            <v>453830</v>
-          </cell>
-          <cell r="J231">
-            <v>2076.06</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232">
-            <v>42521</v>
-          </cell>
-          <cell r="E232">
-            <v>495162</v>
-          </cell>
-          <cell r="J232">
-            <v>2096.96</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="A233">
-            <v>42528</v>
-          </cell>
-          <cell r="E233">
-            <v>522762</v>
-          </cell>
-          <cell r="J233">
-            <v>2112.13</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="A234">
-            <v>42535</v>
-          </cell>
-          <cell r="E234">
-            <v>426894</v>
-          </cell>
-          <cell r="J234">
-            <v>2075.3200000000002</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="A235">
-            <v>42542</v>
-          </cell>
-          <cell r="E235">
-            <v>369555</v>
-          </cell>
-          <cell r="J235">
-            <v>2088.9</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="A236">
-            <v>42549</v>
-          </cell>
-          <cell r="E236">
-            <v>158580</v>
-          </cell>
-          <cell r="J236">
-            <v>2036.09</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9473,21 +6863,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
@@ -12032,13 +9421,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8:S8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
